--- a/sriramModel-nelson-melancholic-patientID_17-sims-cort-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-cort-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.813500753668837</v>
+        <v>6.829618994977316</v>
       </c>
       <c r="C2">
-        <v>6.819614102975636</v>
+        <v>6.811074743053473</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6.809455056007564</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6.811565756689822</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6.826592591710276</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.636962078640377</v>
+        <v>6.667921569499696</v>
       </c>
       <c r="C3">
-        <v>6.648270308229305</v>
+        <v>6.632201078315424</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.630001144648014</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6.633135528844203</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6.663269581824343</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.470194728285731</v>
+        <v>6.514863076383457</v>
       </c>
       <c r="C4">
-        <v>6.485833703210097</v>
+        <v>6.463230369877597</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.461395311778103</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6.464501676164266</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6.509959527639659</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.313017379496952</v>
+        <v>6.370396891235159</v>
       </c>
       <c r="C5">
-        <v>6.332172978831403</v>
+        <v>6.304018712008505</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6.303402645942326</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.305464224995734</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6.366592121427877</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.165256297369689</v>
+        <v>6.234474815303849</v>
       </c>
       <c r="C6">
-        <v>6.187160358402659</v>
+        <v>6.154426485051973</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6.155795751847176</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.155830391368773</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>6.233098289351057</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.026745001139412</v>
+        <v>6.10704734032189</v>
       </c>
       <c r="C7">
-        <v>6.050671523793703</v>
+        <v>6.014318175213211</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6.018354517434516</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6.015414071807142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6.109410249880675</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.897323942936175</v>
+        <v>5.988063851036996</v>
       </c>
       <c r="C8">
-        <v>5.922585541416237</v>
+        <v>5.88356223121636</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5.8908660135166</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5.88403572843339</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5.995461506201046</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.776840191877312</v>
+        <v>5.87747285535589</v>
       </c>
       <c r="C9">
-        <v>5.802784784914974</v>
+        <v>5.762030879841602</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5.773124296810059</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5.761522143740596</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5.891186852607894</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.665147124303676</v>
+        <v>5.775222097541721</v>
       </c>
       <c r="C10">
-        <v>5.691154857953526</v>
+        <v>5.649599907731162</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5.664930197744351</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5.647706151408895</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5.796522370168957</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.562104119970313</v>
+        <v>5.6812586579512</v>
       </c>
       <c r="C11">
-        <v>5.587584515831738</v>
+        <v>5.546148450178362</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5.566091098551587</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5.542426374862403</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5.711405398434454</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.467576262748097</v>
+        <v>5.595529038673493</v>
       </c>
       <c r="C12">
-        <v>5.491965585633141</v>
+        <v>5.451558771698149</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5.476420723211745</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5.445526986090711</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5.635774484575193</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.381434044894132</v>
+        <v>5.517979210321912</v>
       </c>
       <c r="C13">
-        <v>5.404192886081787</v>
+        <v>5.365716049323657</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5.395738912440896</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>5.356857477338707</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5.569569317990426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.3035530733831</v>
+        <v>5.448554622559698</v>
       </c>
       <c r="C14">
-        <v>5.324164146433001</v>
+        <v>5.288508141635193</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5.323871379431379</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5.276272412826804</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5.512730638231932</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.23381377675941</v>
+        <v>5.387200180878626</v>
       </c>
       <c r="C15">
-        <v>5.251779924466429</v>
+        <v>5.219825344608393</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5.260649471655373</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5.203631187787439</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5.465200114201938</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.172101110610513</v>
+        <v>5.333860195886991</v>
       </c>
       <c r="C16">
-        <v>5.186943523805764</v>
+        <v>5.159560135160104</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5.205909923775057</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5.138797798748716</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>5.426920186429237</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.118304259534002</v>
+        <v>5.288478304539643</v>
       </c>
       <c r="C17">
-        <v>5.129560910334702</v>
+        <v>5.107606901559003</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5.159494622441791</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5.081640606291088</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5.39783386671365</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.072316333104728</v>
+        <v>5.25099735608884</v>
       </c>
       <c r="C18">
-        <v>5.079540627563058</v>
+        <v>5.063861658426223</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5.121250321064558</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5.03203212320261</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5.377884488842329</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.034034053017038</v>
+        <v>5.22135926227285</v>
       </c>
       <c r="C19">
-        <v>5.036793710758369</v>
+        <v>5.028221743600811</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5.091028345967263</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4.989848782509961</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5.367015394594509</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.003357428115793</v>
+        <v>5.199504810703825</v>
       </c>
       <c r="C20">
-        <v>5.001233599567582</v>
+        <v>5.00058549401163</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>5.068684312624042</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4.954970694981091</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5.365169546176834</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.980189413537374</v>
+        <v>5.185373435165814</v>
       </c>
       <c r="C21">
-        <v>4.972776048765696</v>
+        <v>4.980851897370514</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>5.054077834734959</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4.927281369636539</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5.372289048862198</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.964435549705796</v>
+        <v>5.178902941380673</v>
       </c>
       <c r="C22">
-        <v>4.951339036528301</v>
+        <v>4.968920215955592</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5.047072212975499</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4.906667507922599</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5.388314560011136</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.956003576151509</v>
+        <v>5.18002918650266</v>
       </c>
       <c r="C23">
-        <v>4.936842669731766</v>
+        <v>4.964689578128412</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5.04753408838249</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4.893018772224003</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5.413184573966505</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.954803014527549</v>
+        <v>5.188685694961167</v>
       </c>
       <c r="C24">
-        <v>4.929209085149878</v>
+        <v>4.968058531162136</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5.055333077642663</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4.886227529095088</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5.446834542802574</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.960744714425195</v>
+        <v>5.20480321243148</v>
       </c>
       <c r="C25">
-        <v>4.928362345807846</v>
+        <v>4.978924607946484</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5.070341377584823</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4.886188580769542</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5.489195810530371</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.973740354485623</v>
+        <v>5.228309188326499</v>
       </c>
       <c r="C26">
-        <v>4.934228330519223</v>
+        <v>4.997183652012533</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5.092433339490538</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>4.892798882271835</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>5.540194332708051</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.993701890779125</v>
+        <v>5.259127176771635</v>
       </c>
       <c r="C27">
-        <v>4.946734615475885</v>
+        <v>5.022729277181828</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5.121485003043603</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4.905957247209532</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5.599749124258096</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.020540942938288</v>
+        <v>5.297176144362016</v>
       </c>
       <c r="C28">
-        <v>4.965810344632882</v>
+        <v>5.055452380884851</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5.157373579379329</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4.925564033972012</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>5.667770412145982</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.054168107661138</v>
+        <v>5.342369672524308</v>
       </c>
       <c r="C29">
-        <v>4.991386086787047</v>
+        <v>5.095240207986908</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>5.199976877154381</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>4.951520812774589</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>5.744157455485038</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.094492188517841</v>
+        <v>5.394615042499563</v>
       </c>
       <c r="C30">
-        <v>5.023393675013823</v>
+        <v>5.141975532347627</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>5.249172661044654</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>4.983729997463923</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>5.82879594150365</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.1414193295324</v>
+        <v>5.453812189271605</v>
       </c>
       <c r="C31">
-        <v>5.061766021959166</v>
+        <v>5.195535875843013</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5.304837931396415</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>5.022094442222588</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>5.921554990481019</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.194852039431113</v>
+        <v>5.51985250732679</v>
       </c>
       <c r="C32">
-        <v>5.106436907496033</v>
+        <v>5.255792477445892</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5.366848111411861</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>5.066516995476797</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>6.022283669473572</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.254688093477078</v>
+        <v>5.592617496863323</v>
       </c>
       <c r="C33">
-        <v>5.157340727701976</v>
+        <v>5.322609137835302</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>5.435076126787081</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>5.116900007500718</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>6.130807048107663</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.320819299108836</v>
+        <v>5.67197723538156</v>
       </c>
       <c r="C34">
-        <v>5.214412194220481</v>
+        <v>5.395840982144091</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>5.509391361419646</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>5.173144779816081</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>6.246921798888817</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.393130113123771</v>
+        <v>5.757788664203504</v>
       </c>
       <c r="C35">
-        <v>5.277585970200182</v>
+        <v>5.475333145324285</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>5.589658471548824</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>5.235150937500695</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>6.370391372813751</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.471496100305358</v>
+        <v>5.849893683284814</v>
       </c>
       <c r="C36">
-        <v>5.346796222689856</v>
+        <v>5.560919342653818</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>5.675736039737636</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5.302815726250928</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>6.500940880818546</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.55578222585827</v>
+        <v>5.948117053727982</v>
       </c>
       <c r="C37">
-        <v>5.421976066654571</v>
+        <v>5.652420203115673</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>5.767475049888118</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>5.376033210680057</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>6.638251840758532</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.645840981047857</v>
+        <v>6.052264124755546</v>
       </c>
       <c r="C38">
-        <v>5.503056866435373</v>
+        <v>5.749641438093445</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>5.864717165511195</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>5.454693360148329</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>6.781957102298276</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.7415103484519</v>
+        <v>6.16211839649727</v>
       </c>
       <c r="C39">
-        <v>5.589967348878247</v>
+        <v>5.852372043188948</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>5.967292796346917</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>5.538680997196968</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>6.931636247847794</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.84261162372128</v>
+        <v>6.277438975722618</v>
       </c>
       <c r="C40">
-        <v>5.68263247452643</v>
+        <v>5.960382391855958</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>6.075018943890023</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5.627874620485017</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>7.08681196186646</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.948947127638871</v>
+        <v>6.397957989675034</v>
       </c>
       <c r="C41">
-        <v>5.780971983797611</v>
+        <v>6.073422218620806</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>6.187696823658126</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5.722145018881251</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>7.246947894967778</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.060297857977974</v>
+        <v>6.523378047482319</v>
       </c>
       <c r="C42">
-        <v>5.884898522128065</v>
+        <v>6.191218567873695</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>6.305109285394221</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5.821353702671964</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>7.411448522957524</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.176421154467302</v>
+        <v>6.653369891556817</v>
       </c>
       <c r="C43">
-        <v>5.994315212927559</v>
+        <v>6.313473819563368</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>6.427018052053128</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>5.92535111727699</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>7.579661671487779</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.297048474792156</v>
+        <v>6.787570461144446</v>
       </c>
       <c r="C44">
-        <v>6.109112515730579</v>
+        <v>6.439863864024109</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>6.553160849170191</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>6.033974609495584</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>7.750883874063214</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.421883405701285</v>
+        <v>6.925581472739109</v>
       </c>
       <c r="C45">
-        <v>6.229164168517872</v>
+        <v>6.570036545344342</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>6.683248453721184</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>6.147046130237838</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>7.924368962408196</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.550600064508058</v>
+        <v>7.066968838734852</v>
       </c>
       <c r="C46">
-        <v>6.354321979665572</v>
+        <v>6.703610534138991</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>6.816961954520812</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>6.26436965305539</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>8.099339703116328</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.682842056752227</v>
+        <v>7.211263144279702</v>
       </c>
       <c r="C47">
-        <v>6.484409213684863</v>
+        <v>6.840174666730885</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>6.95395028980335</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>6.385728387646069</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>8.27500185052067</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.818222181481912</v>
+        <v>7.357961470571984</v>
       </c>
       <c r="C48">
-        <v>6.619212337174609</v>
+        <v>6.979288063912821</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>7.093828272506608</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>6.510881630338107</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>8.450560108059575</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.956323065658457</v>
+        <v>7.506530751144794</v>
       </c>
       <c r="C49">
-        <v>6.758470985220656</v>
+        <v>7.120481182335317</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>7.236175451383639</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>6.639561544295693</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>8.625234799447068</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.096698891528012</v>
+        <v>7.656412752952438</v>
       </c>
       <c r="C50">
-        <v>6.901866229320879</v>
+        <v>7.263257923110411</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>7.380536099098028</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>6.771469743762073</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>8.798277849866723</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.238878335620771</v>
+        <v>7.807030815159999</v>
       </c>
       <c r="C51">
-        <v>7.049007667570591</v>
+        <v>7.407099044266024</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>7.526420679508074</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>6.906274030401091</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>8.968987443630695</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.382368770053074</v>
+        <v>7.957798016738574</v>
       </c>
       <c r="C52">
-        <v>7.199420506825576</v>
+        <v>7.551466844456362</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>7.673309030594936</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>7.043605586653802</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>9.136720187343293</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.526820532325983</v>
+        <v>8.108245718487483</v>
       </c>
       <c r="C53">
-        <v>7.352797807949464</v>
+        <v>7.695936273230911</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>7.820844550461106</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7.183295125728346</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>9.300952815195775</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.672434554923136</v>
+        <v>8.258318171214384</v>
       </c>
       <c r="C54">
-        <v>7.509656675440472</v>
+        <v>7.840506152320544</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>7.969312003641368</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>7.325997773348616</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>9.461404116174339</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.819369861768964</v>
+        <v>8.407912002912724</v>
       </c>
       <c r="C55">
-        <v>7.670321284267839</v>
+        <v>7.985118022187127</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>8.118919028241422</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>7.47231996846685</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>9.617819461554394</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.96759356483676</v>
+        <v>8.556778777284409</v>
       </c>
       <c r="C56">
-        <v>7.834637252557365</v>
+        <v>8.129546190801841</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>8.269616401188658</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>7.62256063872587</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>9.769934900032961</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.116911873579438</v>
+        <v>8.704565476166159</v>
       </c>
       <c r="C57">
-        <v>8.002017186217346</v>
+        <v>8.273433879871522</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>8.421139634899838</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>7.77672354530923</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>9.917498571098463</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.267002324826729</v>
+        <v>8.850852307869221</v>
       </c>
       <c r="C58">
-        <v>8.171525223632555</v>
+        <v>8.416330615370962</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>8.573054863348935</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>7.934537314144414</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>10.06028558543927</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.41744587647233</v>
+        <v>8.995187027636472</v>
       </c>
       <c r="C59">
-        <v>8.341991550412541</v>
+        <v>8.557728951754676</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>8.724805788223028</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>8.09548639242283</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>10.19810691169463</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.567757568795889</v>
+        <v>9.137113130733763</v>
       </c>
       <c r="C60">
-        <v>8.512139000977239</v>
+        <v>8.697098829466036</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>8.875759814876888</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>8.25885206764284</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>10.33081397138601</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.71741463174653</v>
+        <v>9.276192785725113</v>
       </c>
       <c r="C61">
-        <v>8.680700937709249</v>
+        <v>8.833917372617783</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>9.025250795479989</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>8.423762325231952</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>10.45829982401183</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.865881188010135</v>
+        <v>9.412023564535433</v>
       </c>
       <c r="C62">
-        <v>8.846513823007058</v>
+        <v>8.967693975984623</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>9.172615991218148</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>8.589247175562017</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>10.58049816290758</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.012629002905918</v>
+        <v>9.544249702936787</v>
       </c>
       <c r="C63">
-        <v>9.008576608438888</v>
+        <v>9.097988383340967</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>9.317226090698041</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>8.754295218333549</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>10.69738043074938</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.157154068936084</v>
+        <v>9.672568460299177</v>
       </c>
       <c r="C64">
-        <v>9.166077904905926</v>
+        <v>9.224422710110854</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>9.458507553543731</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>8.917906695875404</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>10.80895228938874</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.298989080917089</v>
+        <v>9.796732517769565</v>
       </c>
       <c r="C65">
-        <v>9.318397694621062</v>
+        <v>9.346687583977065</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>9.595957511899142</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>9.079138789376145</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>10.91524958694339</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.437712092497879</v>
+        <v>9.916549301239483</v>
       </c>
       <c r="C66">
-        <v>9.465092349796096</v>
+        <v>9.464543114245899</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>9.729151914915816</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>9.237140230947563</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>11.01633410231542</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.572951797399101</v>
+        <v>10.03187812495535</v>
       </c>
       <c r="C67">
-        <v>9.605870943103556</v>
+        <v>9.577816041142521</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>9.857748044588257</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>9.391174015183562</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>11.11228950204266</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.704389966872339</v>
+        <v>10.14262590489289</v>
       </c>
       <c r="C68">
-        <v>9.740568768772564</v>
+        <v>9.686394157653012</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>9.981482648306267</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>9.540628591297526</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>11.203217510138</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9.831761601897069</v>
+        <v>10.2487420760017</v>
       </c>
       <c r="C69">
-        <v>9.869121782437395</v>
+        <v>9.790219192167722</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>10.10016695629429</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>9.685019254204221</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>11.2892344068341</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>9.954853339451867</v>
+        <v>10.35021319156489</v>
       </c>
       <c r="C70">
-        <v>9.991543889884367</v>
+        <v>9.889279045813861</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>10.2136797027223</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>9.823982115722101</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>11.37046791422341</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.0735006026848</v>
+        <v>10.44705755544306</v>
       </c>
       <c r="C71">
-        <v>10.1079078027726</v>
+        <v>9.983600071887164</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>10.32195908966363</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>9.957263147776832</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>11.447054455841</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10.18758391518405</v>
+        <v>10.53932008775926</v>
       </c>
       <c r="C72">
-        <v>10.2183294703667</v>
+        <v>10.07323985598327</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>10.42499441310704</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>10.08470455110801</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>11.5191367735603</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10.29702472692358</v>
+        <v>10.62706764812591</v>
       </c>
       <c r="C73">
-        <v>10.32295573652054</v>
+        <v>10.15828071221526</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>10.5228178738608</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>10.20623021327532</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>11.58686189268551</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10.40178102463222</v>
+        <v>10.71038481046384</v>
       </c>
       <c r="C74">
-        <v>10.42195473453882</v>
+        <v>10.23882405258956</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>10.61549687880033</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>10.32183150751974</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>11.65037939444426</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10.50184293275621</v>
+        <v>10.78937013357147</v>
       </c>
       <c r="C75">
-        <v>10.51550851854378</v>
+        <v>10.31498561367242</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>10.70312708862775</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>10.43155420468578</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>11.70983996611764</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10.59722845339265</v>
+        <v>10.86413295401665</v>
       </c>
       <c r="C76">
-        <v>10.60380747566304</v>
+        <v>10.38689149712322</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>10.78582629976791</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>10.53548685061225</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>11.7653942041869</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10.68797944478922</v>
+        <v>10.93479063179043</v>
       </c>
       <c r="C77">
-        <v>10.68704613159274</v>
+        <v>10.45467490103602</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>10.8637290978564</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>10.6337508657139</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>11.81719160969086</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10.77415790005034</v>
+        <v>11.00146622707675</v>
       </c>
       <c r="C78">
-        <v>10.76542003322096</v>
+        <v>10.51847350216954</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>10.93698235404995</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>10.72649221641529</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>11.86537977877765</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10.85584256207564</v>
+        <v>11.06428656370997</v>
       </c>
       <c r="C79">
-        <v>10.83912345679465</v>
+        <v>10.57842735090118</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>11.00574144740084</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>10.81387454046179</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>11.91010377657</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10.93312588096298</v>
+        <v>11.1233806175925</v>
       </c>
       <c r="C80">
-        <v>10.90834774450346</v>
+        <v>10.63467720829086</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>11.07016714076647</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>10.89607362871758</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>11.95150562770152</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11.00611131304271</v>
+        <v>11.17887820215686</v>
       </c>
       <c r="C81">
-        <v>10.97328011801963</v>
+        <v>10.68736324334034</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>11.13042304860667</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>10.97327297934414</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>11.98972389877219</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>11.07491094602517</v>
+        <v>11.23090889866688</v>
       </c>
       <c r="C82">
-        <v>11.03410285246228</v>
+        <v>10.73662403466917</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>11.18667359337203</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>11.0456602901864</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>12.02489340051667</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>11.13964342883044</v>
+        <v>11.27960119362612</v>
       </c>
       <c r="C83">
-        <v>11.09099272113957</v>
+        <v>10.7825958003293</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>11.23908238381185</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>11.11342472934795</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>12.0571449758159</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>11.20043218210617</v>
+        <v>11.3250817973454</v>
       </c>
       <c r="C84">
-        <v>11.14412064419996</v>
+        <v>10.82541181421798</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>11.28781095383963</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>11.17675481706102</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>12.08660534928462</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>11.25740386216284</v>
+        <v>11.36747510564974</v>
       </c>
       <c r="C85">
-        <v>11.19365148957859</v>
+        <v>10.86520198461311</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>11.33301778572864</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>11.23583680841334</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>12.11339702461116</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>11.31068697403848</v>
+        <v>11.40690292888329</v>
       </c>
       <c r="C86">
-        <v>11.23974398588727</v>
+        <v>10.90209254312205</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>11.37485757099675</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>11.29085373859676</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>12.13763832828602</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>11.36041058536491</v>
+        <v>11.44348349285363</v>
       </c>
       <c r="C87">
-        <v>11.28255072520623</v>
+        <v>10.93620577111824</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>11.41348066482532</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>11.34198337745658</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>12.15944285253745</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>11.40670372368379</v>
+        <v>11.47733239964268</v>
       </c>
       <c r="C88">
-        <v>11.32221821837903</v>
+        <v>10.96766000602406</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>11.44903273092151</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>11.38939953417829</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>12.17892053264003</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>11.4496946520235</v>
+        <v>11.50856148199933</v>
       </c>
       <c r="C89">
-        <v>11.35888700236509</v>
+        <v>10.99656957458065</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>11.48165444623922</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>11.43327007147373</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>12.19617683596919</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>11.48951020567289</v>
+        <v>11.5372791837866</v>
       </c>
       <c r="C90">
-        <v>11.39269177769791</v>
+        <v>11.02304465259468</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>11.51148163530045</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>11.47375731535675</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>12.21131296507806</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>11.52627523716238</v>
+        <v>11.56359042389246</v>
       </c>
       <c r="C91">
-        <v>11.42376156605294</v>
+        <v>11.04719127434299</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>11.5386447809643</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>11.51101759993272</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>12.22442636992055</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>11.56011218677571</v>
+        <v>11.58759634083116</v>
       </c>
       <c r="C92">
-        <v>11.45221988699294</v>
+        <v>11.06911155093066</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>11.56326910683523</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>11.54520121299756</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>12.23561041808461</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>11.59114073621948</v>
+        <v>11.60939450600975</v>
       </c>
       <c r="C93">
-        <v>11.47818493888457</v>
+        <v>11.08890370079435</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>11.58547479416789</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>11.57645252228398</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>12.24495442849883</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>11.6194775368045</v>
+        <v>11.6290789592381</v>
       </c>
       <c r="C94">
-        <v>11.5017697884773</v>
+        <v>11.10666182906007</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>11.60537697838188</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>11.60490998643334</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>12.25254399784696</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>11.6452360115748</v>
+        <v>11.64674021608578</v>
       </c>
       <c r="C95">
-        <v>11.52308256151681</v>
+        <v>11.12247626722969</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>11.62308583383711</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>11.63070623373558</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>12.2584611219416</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>11.66852621096366</v>
+        <v>11.66246533463031</v>
       </c>
       <c r="C96">
-        <v>11.54222663357548</v>
+        <v>11.13643369881551</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>11.63870670914379</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>11.65396817458418</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>12.26278428913979</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>11.68945470929778</v>
+        <v>11.67633798707116</v>
       </c>
       <c r="C97">
-        <v>11.55930081829859</v>
+        <v>11.14861723813283</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>11.65234025745119</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>11.67481715536836</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>12.26558859525055</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>11.70812454541047</v>
+        <v>11.68843854793531</v>
       </c>
       <c r="C98">
-        <v>11.57439955224285</v>
+        <v>11.15910654067827</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>11.66408260702827</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>11.69336913578108</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>12.26694581069083</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11.72463519599549</v>
+        <v>11.69884419521639</v>
       </c>
       <c r="C99">
-        <v>11.58761307586183</v>
+        <v>11.16797787924615</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>11.67402553440064</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>11.70973487977216</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>12.26692460807395</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>11.73908257391453</v>
+        <v>11.7076289230265</v>
       </c>
       <c r="C100">
-        <v>11.59902760966596</v>
+        <v>11.17530428319768</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>11.68225659159843</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>11.72402012425933</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>12.26559042372832</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>11.75155905015236</v>
+        <v>11.71486377351719</v>
       </c>
       <c r="C101">
-        <v>11.60872552451406</v>
+        <v>11.18115566129938</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>11.68885927613652</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>11.73632576845927</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>12.26300589521533</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>11.76215349343853</v>
+        <v>11.72061683242604</v>
       </c>
       <c r="C102">
-        <v>11.61678550687464</v>
+        <v>11.18559884355897</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>11.69391319779124</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>11.74674805006778</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>12.25923078274523</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>11.77095132512244</v>
+        <v>11.72495339926214</v>
       </c>
       <c r="C103">
-        <v>11.62328271806533</v>
+        <v>11.18869786129484</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>11.69749424264914</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>11.75537872972195</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>12.25432217734163</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.77803458527267</v>
+        <v>11.72793605587419</v>
       </c>
       <c r="C104">
-        <v>11.62828894749119</v>
+        <v>11.19051394415985</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>11.69967472980553</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>11.76230529172829</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>12.24833461077631</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>11.78348200868832</v>
+        <v>11.7296247677274</v>
       </c>
       <c r="C105">
-        <v>11.63187276040457</v>
+        <v>11.19110567724637</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>11.70052355311834</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>11.76761110877312</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>12.24132014026783</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>11.78736910756427</v>
+        <v>11.73007697118694</v>
       </c>
       <c r="C106">
-        <v>11.63409963953514</v>
+        <v>11.19052906207208</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>11.70010634989302</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>11.77137561863836</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>12.23332841813794</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>11.78976826043696</v>
+        <v>11.72934767126628</v>
       </c>
       <c r="C107">
-        <v>11.63503212114384</v>
+        <v>11.1888376423577</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>11.69848563502849</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>11.77367451083822</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>12.22440681844716</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>11.79074880447225</v>
+        <v>11.7274895335943</v>
       </c>
       <c r="C108">
-        <v>11.63472992568786</v>
+        <v>11.18608259569398</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>11.69572094123929</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>11.77457988498313</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>12.21460052263128</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>11.79037713064034</v>
+        <v>11.72455297707305</v>
       </c>
       <c r="C109">
-        <v>11.63325008275622</v>
+        <v>11.18231283674345</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>11.69186896804737</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>11.77416041179461</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>12.20395262046606</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>11.78871678056736</v>
+        <v>11.72058626888009</v>
       </c>
       <c r="C110">
-        <v>11.63064705093748</v>
+        <v>11.177575120402</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>11.6869836801575</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>11.77248149659985</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>12.19250420533187</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>11.78582854419724</v>
+        <v>11.71563561513944</v>
       </c>
       <c r="C111">
-        <v>11.62697283261072</v>
+        <v>11.17191413584255</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>11.68111647940271</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>11.76960541571572</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>12.18029447406478</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>11.78177055744089</v>
+        <v>11.70974522350015</v>
       </c>
       <c r="C112">
-        <v>11.62227708360211</v>
+        <v>11.16537256406787</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>11.67431627036076</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>11.7655914568783</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>12.16736076995433</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11.77659839931233</v>
+        <v>11.70295740851284</v>
       </c>
       <c r="C113">
-        <v>11.61660721836757</v>
+        <v>11.15799122973198</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>11.66662962764336</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>11.76049607759896</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>12.15373875518051</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.77036518800139</v>
+        <v>11.69531268334162</v>
       </c>
       <c r="C114">
-        <v>11.610008510421</v>
+        <v>11.14980909599216</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>11.6581008628049</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>11.75437300730444</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>12.13946238810884</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>11.76312167551519</v>
+        <v>11.68684974917004</v>
       </c>
       <c r="C115">
-        <v>11.60252418833633</v>
+        <v>11.14086342324055</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>11.64877216502171</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>11.74727340971067</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>12.12456401966625</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>11.75491634050084</v>
+        <v>11.67760571819017</v>
       </c>
       <c r="C116">
-        <v>11.59419552775297</v>
+        <v>11.13118979480915</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>11.6386836798862</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>11.73924596945704</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>12.10907462544872</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>11.74579547910985</v>
+        <v>11.66761602594571</v>
       </c>
       <c r="C117">
-        <v>11.58506193907197</v>
+        <v>11.12082218881735</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>11.62787361428992</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>11.73033703638124</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>12.09302349517667</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>11.73580329349337</v>
+        <v>11.65691459483146</v>
       </c>
       <c r="C118">
-        <v>11.57516105137079</v>
+        <v>11.10979309154793</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>11.61637833687219</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>11.7205907217219</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>12.0764387682683</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>11.72498197797995</v>
+        <v>11.64553389930768</v>
       </c>
       <c r="C119">
-        <v>11.56452879268898</v>
+        <v>11.09813349104033</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>11.60423243906412</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>11.71004899977735</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>12.05934719135707</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>11.71337180299935</v>
+        <v>11.63350493067513</v>
       </c>
       <c r="C120">
-        <v>11.55319946655166</v>
+        <v>11.08587302857042</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>11.59146885989025</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>11.69875183471749</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>12.04177415305313</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>11.70101119634636</v>
+        <v>11.62085740938708</v>
       </c>
       <c r="C121">
-        <v>11.54120582522666</v>
+        <v>11.07303996921467</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>11.57811892336299</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>11.6867372395039</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>12.0237439899663</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>11.68793682140916</v>
+        <v>11.60761969668923</v>
       </c>
       <c r="C122">
-        <v>11.52857913969351</v>
+        <v>11.05966135284299</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>11.56421245408672</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>11.67404140648079</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>12.00527978174012</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>11.6741836529014</v>
+        <v>11.59381894595863</v>
       </c>
       <c r="C123">
-        <v>11.51534926605983</v>
+        <v>11.04576295778804</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>11.5497778150675</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>11.66069876234771</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>11.98640355984576</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>11.65978505018518</v>
+        <v>11.57948113285134</v>
       </c>
       <c r="C124">
-        <v>11.50154470987025</v>
+        <v>11.03136944508983</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>11.53484200584122</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>11.64674207461404</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>11.96713633151225</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>11.64477282798547</v>
+        <v>11.56463105548502</v>
       </c>
       <c r="C125">
-        <v>11.48719268751372</v>
+        <v>11.01650433707483</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>11.51943070893024</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>11.63220252235857</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>11.94749805270092</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>11.62917732433826</v>
+        <v>11.54929248747529</v>
       </c>
       <c r="C126">
-        <v>11.47231918389758</v>
+        <v>11.00119010762208</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>11.50356836106401</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>11.61710976541127</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>11.92750780582951</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>11.61302746586452</v>
+        <v>11.53348810326541</v>
       </c>
       <c r="C127">
-        <v>11.45694900770074</v>
+        <v>10.98544822191882</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>11.48727821763394</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>11.60149203951612</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>11.90718372671089</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>11.59635083063873</v>
+        <v>11.5172396260746</v>
       </c>
       <c r="C128">
-        <v>11.44110584456406</v>
+        <v>10.96929916026593</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>11.47058239421283</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>11.58537619605392</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>11.88654309515488</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>11.57917370855954</v>
+        <v>11.50056782383504</v>
       </c>
       <c r="C129">
-        <v>11.42481230804808</v>
+        <v>10.95276250336468</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>11.45350194635666</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>11.56878779611658</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>11.86560242079802</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11.56152115930314</v>
+        <v>11.48349251974199</v>
       </c>
       <c r="C130">
-        <v>11.40808998818629</v>
+        <v>10.93585691544683</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>11.43605689246351</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>11.55175115155901</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>11.84437734327165</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.54341706788628</v>
+        <v>11.46603272331666</v>
       </c>
       <c r="C131">
-        <v>11.39095949770278</v>
+        <v>10.91860025098617</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>11.41826629113063</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>11.53428939787433</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>11.82288284707769</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11.52488419793954</v>
+        <v>11.44820654919158</v>
       </c>
       <c r="C132">
-        <v>11.37344051608674</v>
+        <v>10.90100952918936</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>11.40014826400229</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>11.51642454875398</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>11.8011331715786</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.50594424276815</v>
+        <v>11.43003136433279</v>
       </c>
       <c r="C133">
-        <v>11.35555183171411</v>
+        <v>10.88310103007693</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>11.38172005964152</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>11.49817754129208</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>11.77914185058781</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>11.48661787426054</v>
+        <v>11.41152375889485</v>
       </c>
       <c r="C134">
-        <v>11.3373113820632</v>
+        <v>10.86489026810735</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>11.36299808335364</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>11.47956830603622</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>11.75692183388342</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>11.46692478970583</v>
+        <v>11.39269957330061</v>
       </c>
       <c r="C135">
-        <v>11.31873629243461</v>
+        <v>10.84639207794049</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>11.34399794295802</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>11.4606157941186</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>11.73448539400293</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>11.44688375659377</v>
+        <v>11.37357399214972</v>
       </c>
       <c r="C136">
-        <v>11.29984291257773</v>
+        <v>10.82762061313357</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>11.32473449063169</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>11.44133804390029</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>11.71184426059138</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11.42651265547436</v>
+        <v>11.35416148396608</v>
       </c>
       <c r="C137">
-        <v>11.2806468516847</v>
+        <v>10.80858938536071</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>11.30522184880709</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>11.42175221141032</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>11.68900960254227</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.40582852094899</v>
+        <v>11.33447592407199</v>
       </c>
       <c r="C138">
-        <v>11.26116301186373</v>
+        <v>10.78931130329857</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>11.28547346214252</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>11.40187461973784</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>11.66599202361317</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.38484758086011</v>
+        <v>11.31453055986951</v>
       </c>
       <c r="C139">
-        <v>11.24140562011243</v>
+        <v>10.76979867598213</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>11.26550211159052</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>11.38172080088228</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>11.64280166909984</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.36358529374615</v>
+        <v>11.2943380449013</v>
       </c>
       <c r="C140">
-        <v>11.22138825887267</v>
+        <v>10.75006327300747</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>11.24531996440134</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>11.361305525241</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>11.61944816710302</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.34205638463018</v>
+        <v>11.27391050564121</v>
       </c>
       <c r="C141">
-        <v>11.20112389519066</v>
+        <v>10.73011631069567</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>11.22493858869484</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>11.34064285236601</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>11.59594069679904</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>11.32027487920927</v>
+        <v>11.25325949301397</v>
       </c>
       <c r="C142">
-        <v>11.1806249085456</v>
+        <v>10.70996851812552</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>11.20436899437478</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>11.31974615025129</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>11.57228801932555</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>11.29825413650911</v>
+        <v>11.23239608692172</v>
       </c>
       <c r="C143">
-        <v>11.15990311741355</v>
+        <v>10.68963011631326</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>11.18362165246696</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>11.29862814172101</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>11.54849843567103</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>11.2760068800657</v>
+        <v>11.21133086349447</v>
       </c>
       <c r="C144">
-        <v>11.13896980463249</v>
+        <v>10.66911088297026</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>11.1627065241426</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>11.27730092726272</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>11.52457989531478</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>11.25354522769465</v>
+        <v>11.19007393010724</v>
       </c>
       <c r="C145">
-        <v>11.11783574160709</v>
+        <v>10.64842013781676</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>11.14163308786883</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>11.25577601796285</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>11.50053994733112</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>11.23088071990716</v>
+        <v>11.16863496830395</v>
       </c>
       <c r="C146">
-        <v>11.09651121153266</v>
+        <v>10.62756678528816</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>11.12041035560735</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>11.23406436656697</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>11.47638577194618</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>11.20802434703007</v>
+        <v>11.14702319982517</v>
       </c>
       <c r="C147">
-        <v>11.07500603137508</v>
+        <v>10.60655932490248</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>11.09904690485419</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>11.21217637917379</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>11.45212423489207</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>11.18498657508515</v>
+        <v>11.12524747265438</v>
       </c>
       <c r="C148">
-        <v>11.05332957300014</v>
+        <v>10.585405865622</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>11.07755088263696</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>11.19012197435981</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>11.42776183334255</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>11.16177737048073</v>
+        <v>11.10331622731922</v>
       </c>
       <c r="C149">
-        <v>11.03149078330542</v>
+        <v>10.56411415695481</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>11.05593005726585</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>11.16791057761815</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>11.40330478790901</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11.13840622356702</v>
+        <v>11.08123753147257</v>
       </c>
       <c r="C150">
-        <v>11.00949820344352</v>
+        <v>10.54269158513634</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>11.03419180705597</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>11.14555114610407</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>11.3787590129824</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>11.11488217110472</v>
+        <v>11.05901911033873</v>
       </c>
       <c r="C151">
-        <v>10.9873599871769</v>
+        <v>10.52114521378119</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>11.01234314567521</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>11.12305224730464</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>11.35413013017144</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>11.09121381769456</v>
+        <v>11.03666832573951</v>
       </c>
       <c r="C152">
-        <v>10.96508391840296</v>
+        <v>10.49948177192879</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>10.99039078387407</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>11.10042196098637</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>11.32942351503465</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>11.06740935621362</v>
+        <v>11.01419223744829</v>
       </c>
       <c r="C153">
-        <v>10.94267742788621</v>
+        <v>10.47770769653954</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>10.96834104617144</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>11.07766802687362</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>11.30464426103434</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>11.0434765873026</v>
+        <v>10.99159757925562</v>
       </c>
       <c r="C154">
-        <v>10.92014760923366</v>
+        <v>10.45582911914492</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>10.94619999012648</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>11.05479780940319</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>11.27979723084488</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>11.01942293794619</v>
+        <v>10.96889079058197</v>
       </c>
       <c r="C155">
-        <v>10.89750123414763</v>
+        <v>10.4338519032</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>10.92397338713417</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>11.03181825837694</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>11.25488706063715</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.99525547918724</v>
+        <v>10.94607803440505</v>
       </c>
       <c r="C156">
-        <v>10.87474476697184</v>
+        <v>10.41178163928099</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>10.90166667182569</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>11.0087360442766</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>11.22991814451761</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.97098094301377</v>
+        <v>10.92316518543158</v>
       </c>
       <c r="C157">
-        <v>10.85188437865549</v>
+        <v>10.38962366520686</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>10.87928506818456</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>10.98555748212836</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>11.20489468850187</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.94660573845612</v>
+        <v>10.90015787746126</v>
       </c>
       <c r="C158">
-        <v>10.82892595996043</v>
+        <v>10.36738307817835</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>10.85683352336935</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>10.96228857288358</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>11.17982068375681</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.92213596693007</v>
+        <v>10.87706148163229</v>
       </c>
       <c r="C159">
-        <v>10.8058751341636</v>
+        <v>10.34506473857797</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>10.83431672625694</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>10.93893504797196</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>11.15469992914419</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.89757743685884</v>
+        <v>10.85388113718229</v>
       </c>
       <c r="C160">
-        <v>10.78273726915938</v>
+        <v>10.32267329234611</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>10.81173916282131</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>10.91550232722864</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>11.12953605325707</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.87293567761364</v>
+        <v>10.83062176038819</v>
       </c>
       <c r="C161">
-        <v>10.75951748901438</v>
+        <v>10.30021316597391</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>10.78910508556439</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>10.89199559247529</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>11.10433249291195</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.84821595279161</v>
+        <v>10.80728803804714</v>
       </c>
       <c r="C162">
-        <v>10.73622068499965</v>
+        <v>10.27768859298187</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>10.76641854626879</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>10.86841976728896</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>11.07909253687338</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.82342327287191</v>
+        <v>10.78388446459819</v>
       </c>
       <c r="C163">
-        <v>10.71285152612389</v>
+        <v>10.25510360526316</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>10.74368340852224</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>10.8447795224278</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>11.05381930974846</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.79856240727554</v>
+        <v>10.76041532318999</v>
       </c>
       <c r="C164">
-        <v>10.68941446919024</v>
+        <v>10.23246205928602</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>10.72090331530577</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>10.82107932527264</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>11.02851578022578</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.7736378958556</v>
+        <v>10.73688471420548</v>
       </c>
       <c r="C165">
-        <v>10.66591376839821</v>
+        <v>10.20976762922659</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>10.69808176469975</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>10.7973234041188</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>11.00318478770956</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.74865405984498</v>
+        <v>10.71329655757419</v>
       </c>
       <c r="C166">
-        <v>10.6423534845113</v>
+        <v>10.18702382597961</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>10.67522207442623</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>10.77351578382538</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>10.97782902107703</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.72361501228648</v>
+        <v>10.6896545917754</v>
       </c>
       <c r="C167">
-        <v>10.61873749359996</v>
+        <v>10.16423399882201</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>10.65232738658834</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>10.74966030881882</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>10.95245105002537</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.69852466795649</v>
+        <v>10.66596240089561</v>
       </c>
       <c r="C168">
-        <v>10.5950694954323</v>
+        <v>10.14140134339901</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>10.62940071099404</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>10.72576060803974</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>10.9270533205517</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.67338675263881</v>
+        <v>10.64222339946781</v>
       </c>
       <c r="C169">
-        <v>10.57135302141502</v>
+        <v>10.11852891227064</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>10.60644489532993</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>10.70182015750573</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>10.90163815181559</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.64820481256558</v>
+        <v>10.61844085836943</v>
       </c>
       <c r="C170">
-        <v>10.54759144222518</v>
+        <v>10.09561961473036</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>10.58346264729598</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>10.6778422543654</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>10.87620776358314</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.62298222297653</v>
+        <v>10.59461790238151</v>
       </c>
       <c r="C171">
-        <v>10.52378797508445</v>
+        <v>10.07267623208146</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>10.56045655411197</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>10.65383002429701</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>10.85076426046711</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.59772219572433</v>
+        <v>10.57075751262992</v>
       </c>
       <c r="C172">
-        <v>10.49994569070359</v>
+        <v>10.04970141332907</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>10.53742905922074</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>10.62978645616526</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>10.8253096476177</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.57242778820571</v>
+        <v>10.54686254682863</v>
       </c>
       <c r="C173">
-        <v>10.47606751991271</v>
+        <v>10.02669769190634</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>10.51438250006006</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>10.60571437953639</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>10.79984583824424</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.54710190938765</v>
+        <v>10.52293572608299</v>
       </c>
       <c r="C174">
-        <v>10.45215625999164</v>
+        <v>10.00366747448748</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>10.49131909732436</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>10.58161649063343</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>10.7743746440681</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.52174732745941</v>
+        <v>10.49897965897018</v>
       </c>
       <c r="C175">
-        <v>10.42821458071392</v>
+        <v>9.980613068710417</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>10.46824095239457</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>10.55749535824178</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>10.74889779896497</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.49636667688336</v>
+        <v>10.47499683555782</v>
       </c>
       <c r="C176">
-        <v>10.40424503011741</v>
+        <v>9.957536678805416</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>10.44515007734904</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>10.53335341176123</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>10.72341694883087</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.470962464402</v>
+        <v>10.45098963232353</v>
       </c>
       <c r="C177">
-        <v>10.38025004001383</v>
+        <v>9.934440395676623</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>10.42204837874741</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>10.50919297641864</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>10.69793365827695</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.44553707522567</v>
+        <v>10.42696032666127</v>
       </c>
       <c r="C178">
-        <v>10.35623193124345</v>
+        <v>9.911326219377827</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>10.39893766693061</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>10.48501625703382</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>10.67244942269105</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.42009277924032</v>
+        <v>10.40291108689035</v>
       </c>
       <c r="C179">
-        <v>10.33219291855326</v>
+        <v>9.888196075511347</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>10.37581967290317</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>10.46082534593365</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>10.64696565678213</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.39463173610396</v>
+        <v>10.37884399202491</v>
       </c>
       <c r="C180">
-        <v>10.30813511576124</v>
+        <v>9.8650517922839</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>10.35269603144542</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>10.43662224390582</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>10.62148371427306</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.36915600050756</v>
+        <v>10.35476102565625</v>
       </c>
       <c r="C181">
-        <v>10.2840605398249</v>
+        <v>9.841895083451755</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>10.32956830399351</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>10.41240884113338</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>10.59600488141968</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.34366752754422</v>
+        <v>10.33066408159504</v>
       </c>
       <c r="C182">
-        <v>10.25997111612819</v>
+        <v>9.818727630484343</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>10.30643797704865</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>10.38818694285631</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>10.57053037860478</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.31816817714256</v>
+        <v>10.30655497392509</v>
       </c>
       <c r="C183">
-        <v>10.23586868160801</v>
+        <v>9.795551028876229</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>10.28330645435416</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>10.36395826636365</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>10.54506137316169</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.29265971877542</v>
+        <v>10.28243542997131</v>
       </c>
       <c r="C184">
-        <v>10.21175498912562</v>
+        <v>9.77236676382617</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>10.26017508096122</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>10.33972443572665</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>10.51959897079136</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.26714383592871</v>
+        <v>10.25830710582493</v>
       </c>
       <c r="C185">
-        <v>10.18763171165706</v>
+        <v>9.749176289296187</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>10.23704513163919</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>10.31548700521315</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>10.49414422596379</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.2416221300643</v>
+        <v>10.23417157806033</v>
       </c>
       <c r="C186">
-        <v>10.16350044498677</v>
+        <v>9.725980986336401</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>10.2139178145708</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>10.29124744718785</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>10.46869814336597</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.21609612446798</v>
+        <v>10.21003035271478</v>
       </c>
       <c r="C187">
-        <v>10.13936271214907</v>
+        <v>9.702782162422222</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>10.19079428553447</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>10.26700716024312</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>10.44326167447547</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.19056726824106</v>
+        <v>10.18588487594062</v>
       </c>
       <c r="C188">
-        <v>10.11521996613311</v>
+        <v>9.679581063280938</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>10.16767563734884</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>10.24276747996933</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>10.41783572958432</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.16503693971032</v>
+        <v>10.16173653163033</v>
       </c>
       <c r="C189">
-        <v>10.09107359325416</v>
+        <v>9.656378888954698</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>10.14456291081623</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>10.21852966770817</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>10.39242116909361</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.13950644974817</v>
+        <v>10.13758661879644</v>
       </c>
       <c r="C190">
-        <v>10.06692491659604</v>
+        <v>9.633176779331519</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>10.12145709832288</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>10.19429492965177</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>10.36701881195679</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.1139770452017</v>
+        <v>10.11343640475862</v>
       </c>
       <c r="C191">
-        <v>10.04277519805897</v>
+        <v>9.609975811425587</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>10.09835913629835</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>10.170064410932</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>10.34162944317737</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.08844991190689</v>
+        <v>10.08928710093014</v>
       </c>
       <c r="C192">
-        <v>10.01862564187753</v>
+        <v>9.586777027012538</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>10.0752699216049</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>10.14583919562601</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>10.31625381105654</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.06292617748613</v>
+        <v>10.06513986166216</v>
       </c>
       <c r="C193">
-        <v>9.994477396619315</v>
+        <v>9.563581417600902</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>10.05219030473248</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>10.12162032070282</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>10.29089261291146</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.03740691431333</v>
+        <v>10.040995753202</v>
       </c>
       <c r="C194">
-        <v>9.970331557895248</v>
+        <v>9.54038991948245</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>10.02912109057301</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>10.09740876744804</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>10.26554652229821</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10.01189314214555</v>
+        <v>10.01685584418206</v>
       </c>
       <c r="C195">
-        <v>9.946189171083912</v>
+        <v>9.517203435772569</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>10.00606304947119</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>10.07320546901231</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>10.24021618948335</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.986385830503814</v>
+        <v>9.992721143019871</v>
       </c>
       <c r="C196">
-        <v>9.922051233163963</v>
+        <v>9.494022829629058</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>9.983016910052642</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>10.04901131559986</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>10.21490223391936</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.96088590122813</v>
+        <v>9.968592600722038</v>
       </c>
       <c r="C197">
-        <v>9.897918695288237</v>
+        <v>9.470848917197062</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>9.959983364710499</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>10.02482714729073</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>10.18960521148056</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.935394230791163</v>
+        <v>9.944471116275936</v>
       </c>
       <c r="C198">
-        <v>9.873792464618859</v>
+        <v>9.447682472720251</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>9.936963074522986</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>10.00065376799598</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>10.1643256781562</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.90991165232232</v>
+        <v>9.92035757344301</v>
       </c>
       <c r="C199">
-        <v>9.849673406262054</v>
+        <v>9.424524247247039</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>9.91395666276062</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>9.976491939812998</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>10.13906416821366</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.884438957803503</v>
+        <v>9.896252808758417</v>
       </c>
       <c r="C200">
-        <v>9.825562345551672</v>
+        <v>9.401374952842472</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>9.890964725675234</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>9.952342384548043</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>10.11382118771931</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.85897690010718</v>
+        <v>9.872157606493012</v>
       </c>
       <c r="C201">
-        <v>9.80146006930207</v>
+        <v>9.378235258254461</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>9.867987828308948</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>9.928205792092021</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>10.0885971883804</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.833526194706367</v>
+        <v>9.848072725125048</v>
       </c>
       <c r="C202">
-        <v>9.777367328004503</v>
+        <v>9.355105813915698</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>9.845026501740804</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>9.904082811276989</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>10.06339262787607</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.808087521565666</v>
+        <v>9.823998892594251</v>
       </c>
       <c r="C203">
-        <v>9.753284837257516</v>
+        <v>9.331987237314396</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>9.822081258596411</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>9.879974062049492</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>10.03820793844671</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.782661526934801</v>
+        <v>9.79993680223644</v>
       </c>
       <c r="C204">
-        <v>9.72921327930165</v>
+        <v>9.308880109733904</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>9.799152585628987</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>9.855880136699227</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>10.01304353011504</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.757248824794258</v>
+        <v>9.77588711059099</v>
       </c>
       <c r="C205">
-        <v>9.705153304826359</v>
+        <v>9.28578499044281</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>9.776240945457396</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>9.831801599633488</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>9.987899774752464</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.731849998486958</v>
+        <v>9.751850453264085</v>
       </c>
       <c r="C206">
-        <v>9.681105534011522</v>
+        <v>9.262702414193091</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>9.753346760620142</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>9.807738972389247</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>9.962777045091169</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.706465602288663</v>
+        <v>9.727827436845397</v>
       </c>
       <c r="C207">
-        <v>9.657070558215255</v>
+        <v>9.239632888000969</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>9.730470457267417</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>9.783692762599676</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>9.93767569033678</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.681096162635946</v>
+        <v>9.703818636716274</v>
       </c>
       <c r="C208">
-        <v>9.6330489411486</v>
+        <v>9.216576892929019</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>9.707612435555459</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>9.759663458869722</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>9.912596042681116</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.65574217953905</v>
+        <v>9.67982459153172</v>
       </c>
       <c r="C209">
-        <v>9.609041220050418</v>
+        <v>9.193534892515304</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>9.684773078309878</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>9.735651526344983</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>9.887538414422151</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.630404127936297</v>
+        <v>9.655845833755908</v>
       </c>
       <c r="C210">
-        <v>9.585047907138511</v>
+        <v>9.170507327416939</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>9.661952710233676</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>9.71165737899079</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>9.862503108118226</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.605082458757973</v>
+        <v>9.631882866875927</v>
       </c>
       <c r="C211">
-        <v>9.561069490439479</v>
+        <v>9.14749461130528</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>9.639151687331953</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>9.687681429360437</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>9.837490411239809</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.579777600139302</v>
+        <v>9.607936165761179</v>
       </c>
       <c r="C212">
-        <v>9.537106435106505</v>
+        <v>9.124497145959198</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>9.616370334188028</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>9.663724078187107</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>9.812500596927247</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.55448995858986</v>
+        <v>9.584006185326047</v>
       </c>
       <c r="C213">
-        <v>9.513159184389902</v>
+        <v>9.101515312841597</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>9.59360896140115</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>9.63978570266864</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>9.787533907936218</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.52921991991701</v>
+        <v>9.560093365441659</v>
       </c>
       <c r="C214">
-        <v>9.489228160540701</v>
+        <v>9.078549471448248</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>9.570867836626009</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>9.615866640313037</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>9.762590596011266</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.503967850265992</v>
+        <v>9.536198125031783</v>
       </c>
       <c r="C215">
-        <v>9.465313765971352</v>
+        <v>9.055599966463898</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>9.548147242222598</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>9.591967224262765</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>9.737670894122434</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>9.478734097129683</v>
+        <v>9.512320851562919</v>
       </c>
       <c r="C216">
-        <v>9.441416383922297</v>
+        <v>9.032667128387773</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>9.525447440651963</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>9.568087777408467</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>9.712775023132075</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>9.453518990150556</v>
+        <v>9.488461927226494</v>
       </c>
       <c r="C217">
-        <v>9.417536379485405</v>
+        <v>9.009751269958111</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>9.502768680522353</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>9.544228602649056</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>9.687903186825055</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>9.428322842011958</v>
+        <v>9.464621714525345</v>
       </c>
       <c r="C218">
-        <v>9.393674100401965</v>
+        <v>8.986852686009092</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>9.480111186282189</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>9.520389976920548</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>9.663055587527037</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>9.403145949309701</v>
+        <v>9.440800558437706</v>
       </c>
       <c r="C219">
-        <v>9.369829877755485</v>
+        <v>8.963971662388701</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>9.457475179751262</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>9.496572168746132</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>9.638232415327748</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>9.37798859324929</v>
+        <v>9.41699878353969</v>
       </c>
       <c r="C220">
-        <v>9.346004026899504</v>
+        <v>8.941108470112759</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>9.434860872268327</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>9.472775436568062</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>9.613433848842208</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>9.352851040409108</v>
+        <v>9.393216705980274</v>
       </c>
       <c r="C221">
-        <v>9.322196847996659</v>
+        <v>8.918263362554383</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>9.412268463009514</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>9.449000023589329</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>9.588660050067341</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>9.327733543492515</v>
+        <v>9.369454625964877</v>
       </c>
       <c r="C222">
-        <v>9.298408626809971</v>
+        <v>8.895436586025752</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>9.389698139599284</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>9.425246158921892</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>9.563911183605789</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>9.302636341923012</v>
+        <v>9.345712827260396</v>
       </c>
       <c r="C223">
-        <v>9.274639635363208</v>
+        <v>8.872628373832537</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>9.367150081407981</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>9.401514061677037</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>9.539187402032788</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>9.277559662416852</v>
+        <v>9.321991579022416</v>
       </c>
       <c r="C224">
-        <v>9.25089013246887</v>
+        <v>8.849838945977355</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>9.344624460240087</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>9.377803941529631</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>9.514488849357972</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>9.252503719940613</v>
+        <v>9.298291142921729</v>
       </c>
       <c r="C225">
-        <v>9.227160364470725</v>
+        <v>8.827068512271115</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>9.322121439789536</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>9.354115998270931</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>9.489815660678182</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>9.227468717675295</v>
+        <v>9.274611767296685</v>
       </c>
       <c r="C226">
-        <v>9.203450565678825</v>
+        <v>8.804317273905321</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>9.299641167336627</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>9.330450410423886</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>9.46516796709845</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>9.202454848443603</v>
+        <v>9.250953685028723</v>
       </c>
       <c r="C227">
-        <v>9.179760958980225</v>
+        <v>8.781585421205849</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>9.277183782666212</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>9.306807352685038</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>9.440545892365387</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>9.177462294406457</v>
+        <v>9.227317121264427</v>
       </c>
       <c r="C228">
-        <v>9.156091756385152</v>
+        <v>8.758873133303393</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>9.254749426784146</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>9.283186995832819</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>9.415949551786062</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>9.152491227874576</v>
+        <v>9.203702291722493</v>
       </c>
       <c r="C229">
-        <v>9.132443159428288</v>
+        <v>8.736180583277116</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>9.232338229985361</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>9.259589499363985</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>9.391379052606455</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>9.127541812088044</v>
+        <v>9.180109401670338</v>
       </c>
       <c r="C230">
-        <v>9.108815359762362</v>
+        <v>8.713507935147206</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>9.209950313752852</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>9.236015010466899</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>9.36683450106387</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>9.102614200842806</v>
+        <v>9.156538640951387</v>
       </c>
       <c r="C231">
-        <v>9.085208539511131</v>
+        <v>8.690855342024721</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>9.187585791856355</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>9.21246367067446</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>9.34231599634084</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>9.077708539979829</v>
+        <v>9.132990197500819</v>
       </c>
       <c r="C232">
-        <v>9.061622871738358</v>
+        <v>8.668222952271064</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>9.165244776472214</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>9.188935616546571</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>9.317823631194068</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>9.052824966747142</v>
+        <v>9.109464248601675</v>
       </c>
       <c r="C233">
-        <v>9.038058520900808</v>
+        <v>8.645610906371893</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>9.14292737274106</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>9.165430976928301</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>9.293357493144025</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>9.027963611115396</v>
+        <v>9.085960962211672</v>
       </c>
       <c r="C234">
-        <v>9.014515643151265</v>
+        <v>8.62301933655514</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>9.120633677652851</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>9.141949867223754</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>9.268917667164656</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>9.003124595377116</v>
+        <v>9.062480496137931</v>
       </c>
       <c r="C235">
-        <v>8.990994386813304</v>
+        <v>8.600448368269335</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>9.098363777820669</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>9.11849239902193</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>9.244504233331117</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>8.978308035132315</v>
+        <v>9.039023004578285</v>
       </c>
       <c r="C236">
-        <v>8.96749489266799</v>
+        <v>8.577898121959532</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>9.076117763688144</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>9.09505868135785</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>9.22011726475148</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8.953514039233468</v>
+        <v>9.01558863340534</v>
       </c>
       <c r="C237">
-        <v>8.944017294228372</v>
+        <v>8.555368711247361</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>9.053895717576896</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>9.071648815482369</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>9.19575683081832</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8.928742710270392</v>
+        <v>8.992177519328964</v>
       </c>
       <c r="C238">
-        <v>8.920561718307294</v>
+        <v>8.532860242311585</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>9.031697717039986</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>9.048262895811133</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>9.171422999663688</v>
       </c>
     </row>
   </sheetData>
